--- a/html/map/survey/insert_excel.xlsx
+++ b/html/map/survey/insert_excel.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7725"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$254</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="494">
   <si>
     <t>org_hq_country</t>
   </si>
@@ -229,9 +232,6 @@
     <t>BMU</t>
   </si>
   <si>
-    <t>AF</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
@@ -1024,57 +1024,36 @@
     <t>MAF</t>
   </si>
   <si>
-    <t>Åland Islands</t>
-  </si>
-  <si>
     <t>Anguilla</t>
   </si>
   <si>
     <t>Antarctica</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
     <t>Bonaire, Sint Eustatius and Saba</t>
   </si>
   <si>
     <t>British Indian Ocean Territory</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
     <t>Christmas Island</t>
   </si>
   <si>
     <t>Cocos (Keeling) Islands</t>
   </si>
   <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Congo, The Democratic Republic of the</t>
-  </si>
-  <si>
     <t>Cook Islands</t>
   </si>
   <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
     <t>French Southern Territories</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -1093,42 +1072,12 @@
     <t>Installations in International Waters</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Macedonia, The former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Martinique</t>
   </si>
   <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>Montserrat</t>
   </si>
   <si>
@@ -1156,15 +1105,6 @@
     <t>Saint Helena, Ascension and Tristan Da Cunha</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Martin (French Part)</t>
-  </si>
-  <si>
     <t>Saint Pierre and Miquelon</t>
   </si>
   <si>
@@ -1177,9 +1117,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -1198,12 +1135,6 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>Sint Maarten (Dutch Part)</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
@@ -1249,15 +1180,9 @@
     <t>Syrian Arab Republic</t>
   </si>
   <si>
-    <t>Taiwan, Province of China</t>
-  </si>
-  <si>
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -1303,9 +1228,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>United States [A to E] [F to J] [K to O] [P to T] [U to Z]</t>
-  </si>
-  <si>
     <t>United States Minor Outlying Islands</t>
   </si>
   <si>
@@ -1318,21 +1240,9 @@
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>Virgin Islands, British</t>
   </si>
   <si>
-    <t>Virgin Islands, U.S.</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
     <t>Western Sahara</t>
   </si>
   <si>
@@ -1505,6 +1415,90 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t>Micronesia, Fed. Sts.</t>
+  </si>
+  <si>
+    <t>Korea, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>Bahamas, The</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Faeroe Islands</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>St. Martin (French part)</t>
+  </si>
+  <si>
+    <t>Macedonia, FYR</t>
+  </si>
+  <si>
+    <t>Macao SAR, China</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Congo, Rep.</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>São Tomé and Principe</t>
+  </si>
+  <si>
+    <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1619,26 +1613,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1653,9 +1632,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1954,11 +1930,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="D7" activeCellId="1" sqref="A1:F254 D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="52.5" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -1980,7 +1963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2000,9 +1983,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>336</v>
+        <v>493</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2020,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39.75" thickBot="1">
+    <row r="4" spans="1:6" ht="27" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2040,7 +2023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="52.5" thickBot="1">
+    <row r="5" spans="1:6" ht="27" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2060,7 +2043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39.75" thickBot="1">
+    <row r="6" spans="1:6" ht="27" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -2080,7 +2063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="39.75" thickBot="1">
+    <row r="7" spans="1:6" ht="27" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2100,7 +2083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.75" thickBot="1">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2122,7 +2105,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -2140,9 +2123,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -2160,7 +2143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="65.25" thickBot="1">
+    <row r="11" spans="1:6" ht="27" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -2180,7 +2163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="65.25" thickBot="1">
+    <row r="12" spans="1:6" ht="27" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -2200,7 +2183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="39.75" thickBot="1">
+    <row r="13" spans="1:6" ht="27" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -2220,7 +2203,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="65.25" thickBot="1">
+    <row r="14" spans="1:6" ht="27" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -2240,7 +2223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -2260,7 +2243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="39.75" thickBot="1">
+    <row r="16" spans="1:6" ht="27" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2280,7 +2263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="39.75" thickBot="1">
+    <row r="17" spans="1:6" ht="27" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -2300,9 +2283,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="65.25" thickBot="1">
+    <row r="18" spans="1:6" ht="27" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>53</v>
@@ -2320,7 +2303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="52.5" thickBot="1">
+    <row r="19" spans="1:6" ht="27" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -2340,7 +2323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="39.75" thickBot="1">
+    <row r="20" spans="1:6" ht="27" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -2360,7 +2343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="65.25" thickBot="1">
+    <row r="21" spans="1:6" ht="27" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
@@ -2380,7 +2363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="39.75" thickBot="1">
+    <row r="22" spans="1:6" ht="27" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -2400,7 +2383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="39.75" thickBot="1">
+    <row r="23" spans="1:6" ht="27" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
@@ -2420,7 +2403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="65.25" thickBot="1">
+    <row r="24" spans="1:6" ht="27" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
@@ -2440,7 +2423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="39.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>67</v>
       </c>
@@ -2460,7 +2443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="65.25" thickBot="1">
+    <row r="26" spans="1:6" ht="27" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>69</v>
       </c>
@@ -2474,18 +2457,18 @@
         <v>38</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" thickBot="1">
+      <c r="A27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -2500,12 +2483,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="65.25" thickBot="1">
+    <row r="28" spans="1:6" ht="27" thickBot="1">
       <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>37</v>
@@ -2520,9 +2503,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="52.5" thickBot="1">
+    <row r="29" spans="1:6" ht="27" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -2540,12 +2523,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="52.5" thickBot="1">
+    <row r="30" spans="1:6" ht="27" thickBot="1">
       <c r="A30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>15</v>
@@ -2560,12 +2543,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="39.75" thickBot="1">
+    <row r="31" spans="1:6" ht="27" thickBot="1">
       <c r="A31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>33</v>
@@ -2580,12 +2563,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="65.25" thickBot="1">
+    <row r="32" spans="1:6" ht="27" thickBot="1">
       <c r="A32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>37</v>
@@ -2600,9 +2583,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="52.5" thickBot="1">
+    <row r="33" spans="1:6" ht="27" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -2620,12 +2603,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="39.75" thickBot="1">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>25</v>
@@ -2640,12 +2623,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="39.75" thickBot="1">
+    <row r="35" spans="1:6" ht="27" thickBot="1">
       <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
@@ -2660,12 +2643,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="39.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>33</v>
@@ -2680,12 +2663,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="39.75" thickBot="1">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="A37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>33</v>
@@ -2702,90 +2685,90 @@
     </row>
     <row r="38" spans="1:6" ht="27" thickBot="1">
       <c r="A38" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" thickBot="1">
       <c r="A40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A41" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27" thickBot="1">
+      <c r="A42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="65.25" thickBot="1">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>37</v>
@@ -2800,12 +2783,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="39.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="A43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>33</v>
@@ -2820,12 +2803,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="39.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="A44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>33</v>
@@ -2840,89 +2823,89 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="65.25" thickBot="1">
+    <row r="45" spans="1:6" ht="27" thickBot="1">
       <c r="A45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27" thickBot="1">
+      <c r="A46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A46" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>343</v>
+        <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="39.75" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="39.75" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2930,12 +2913,12 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="65.25" thickBot="1">
+    <row r="50" spans="1:6" ht="27" thickBot="1">
       <c r="A50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>37</v>
@@ -2950,12 +2933,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="39.75" thickBot="1">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1">
       <c r="A51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>33</v>
@@ -2970,9 +2953,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="39.75" thickBot="1">
+    <row r="52" spans="1:6" ht="15.75" thickBot="1">
       <c r="A52" s="3" t="s">
-        <v>345</v>
+        <v>481</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>115</v>
@@ -2984,18 +2967,18 @@
         <v>34</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="78" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="27" thickBot="1">
       <c r="A53" s="3" t="s">
-        <v>346</v>
+        <v>482</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>33</v>
@@ -3004,15 +2987,15 @@
         <v>34</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="27" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1">
       <c r="A54" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -3030,12 +3013,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="65.25" thickBot="1">
+    <row r="55" spans="1:6" ht="27" thickBot="1">
       <c r="A55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>37</v>
@@ -3050,12 +3033,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="39.75" thickBot="1">
+    <row r="56" spans="1:6" ht="27" thickBot="1">
       <c r="A56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>33</v>
@@ -3070,12 +3053,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="39.75" thickBot="1">
+    <row r="57" spans="1:6" ht="27" thickBot="1">
       <c r="A57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>15</v>
@@ -3090,12 +3073,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="65.25" thickBot="1">
+    <row r="58" spans="1:6" ht="27" thickBot="1">
       <c r="A58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>37</v>
@@ -3110,12 +3093,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="65.25" thickBot="1">
+    <row r="59" spans="1:6" ht="27" thickBot="1">
       <c r="A59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>37</v>
@@ -3130,12 +3113,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="39.75" thickBot="1">
+    <row r="60" spans="1:6" ht="27" thickBot="1">
       <c r="A60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>15</v>
@@ -3150,12 +3133,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="39.75" thickBot="1">
+    <row r="61" spans="1:6" ht="27" thickBot="1">
       <c r="A61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>15</v>
@@ -3170,12 +3153,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="39.75" thickBot="1">
+    <row r="62" spans="1:6" ht="27" thickBot="1">
       <c r="A62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>15</v>
@@ -3190,12 +3173,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="52.5" thickBot="1">
+    <row r="63" spans="1:6" ht="27" thickBot="1">
       <c r="A63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>21</v>
@@ -3210,12 +3193,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="65.25" thickBot="1">
+    <row r="64" spans="1:6" ht="27" thickBot="1">
       <c r="A64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>37</v>
@@ -3230,12 +3213,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="65.25" thickBot="1">
+    <row r="65" spans="1:6" ht="27" thickBot="1">
       <c r="A65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>37</v>
@@ -3250,12 +3233,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="65.25" thickBot="1">
+    <row r="66" spans="1:6" ht="27" thickBot="1">
       <c r="A66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>37</v>
@@ -3270,12 +3253,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="52.5" thickBot="1">
+    <row r="67" spans="1:6" ht="27" thickBot="1">
       <c r="A67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>21</v>
@@ -3290,12 +3273,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="65.25" thickBot="1">
+    <row r="68" spans="1:6" ht="27" thickBot="1">
       <c r="A68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>37</v>
@@ -3310,12 +3293,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="39.75" thickBot="1">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1">
       <c r="A69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>33</v>
@@ -3330,12 +3313,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="39.75" thickBot="1">
+    <row r="70" spans="1:6" ht="15.75" thickBot="1">
       <c r="A70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>33</v>
@@ -3350,12 +3333,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="39.75" thickBot="1">
+    <row r="71" spans="1:6" ht="27" thickBot="1">
       <c r="A71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>15</v>
@@ -3370,12 +3353,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="39.75" thickBot="1">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1">
       <c r="A72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>33</v>
@@ -3390,42 +3373,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="52.5" thickBot="1">
+    <row r="73" spans="1:6" ht="27" thickBot="1">
       <c r="A73" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" ht="39.75" thickBot="1">
+        <v>473</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="27" thickBot="1">
       <c r="A74" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B74" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="27" thickBot="1">
+      <c r="A75" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A75" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>25</v>
@@ -3440,12 +3423,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="39.75" thickBot="1">
+    <row r="76" spans="1:6" ht="27" thickBot="1">
       <c r="A76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>15</v>
@@ -3460,12 +3443,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="39.75" thickBot="1">
+    <row r="77" spans="1:6" ht="27" thickBot="1">
       <c r="A77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>15</v>
@@ -3480,9 +3463,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="27" thickBot="1">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1">
       <c r="A78" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>12</v>
@@ -3500,12 +3483,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="27" thickBot="1">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1">
       <c r="A79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>25</v>
@@ -3520,9 +3503,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="39.75" thickBot="1">
+    <row r="80" spans="1:6" ht="27" thickBot="1">
       <c r="A80" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>12</v>
@@ -3540,12 +3523,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="39.75" thickBot="1">
+    <row r="81" spans="1:6" ht="27" thickBot="1">
       <c r="A81" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>33</v>
@@ -3560,12 +3543,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="39.75" thickBot="1">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1">
       <c r="A82" s="3" t="s">
-        <v>352</v>
+        <v>484</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>33</v>
@@ -3580,12 +3563,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="39.75" thickBot="1">
+    <row r="83" spans="1:6" ht="27" thickBot="1">
       <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>15</v>
@@ -3600,12 +3583,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="39.75" thickBot="1">
+    <row r="84" spans="1:6" ht="27" thickBot="1">
       <c r="A84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>15</v>
@@ -3620,12 +3603,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="39.75" thickBot="1">
+    <row r="85" spans="1:6" ht="27" thickBot="1">
       <c r="A85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>33</v>
@@ -3642,7 +3625,7 @@
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1">
       <c r="A86" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>12</v>
@@ -3660,12 +3643,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="39.75" thickBot="1">
+    <row r="87" spans="1:6" ht="27" thickBot="1">
       <c r="A87" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>15</v>
@@ -3680,12 +3663,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="39.75" thickBot="1">
+    <row r="88" spans="1:6" ht="27" thickBot="1">
       <c r="A88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>15</v>
@@ -3700,12 +3683,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="65.25" thickBot="1">
+    <row r="89" spans="1:6" ht="27" thickBot="1">
       <c r="A89" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>37</v>
@@ -3720,9 +3703,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="27" thickBot="1">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1">
       <c r="A90" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>12</v>
@@ -3740,12 +3723,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="27" thickBot="1">
+    <row r="91" spans="1:6" ht="15.75" thickBot="1">
       <c r="A91" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>25</v>
@@ -3760,12 +3743,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="65.25" thickBot="1">
+    <row r="92" spans="1:6" ht="27" thickBot="1">
       <c r="A92" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>37</v>
@@ -3782,7 +3765,7 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1">
       <c r="A93" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>12</v>
@@ -3800,12 +3783,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="39.75" thickBot="1">
+    <row r="94" spans="1:6" ht="15.75" thickBot="1">
       <c r="A94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>33</v>
@@ -3820,12 +3803,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="39.75" thickBot="1">
+    <row r="95" spans="1:6" ht="15.75" thickBot="1">
       <c r="A95" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>33</v>
@@ -3840,12 +3823,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="65.25" thickBot="1">
+    <row r="96" spans="1:6" ht="27" thickBot="1">
       <c r="A96" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>37</v>
@@ -3860,12 +3843,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="65.25" thickBot="1">
+    <row r="97" spans="1:6" ht="27" thickBot="1">
       <c r="A97" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>37</v>
@@ -3880,9 +3863,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="65.25" thickBot="1">
+    <row r="98" spans="1:6" ht="27" thickBot="1">
       <c r="A98" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>12</v>
@@ -3900,9 +3883,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="52.5" thickBot="1">
+    <row r="99" spans="1:6" ht="27" thickBot="1">
       <c r="A99" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>12</v>
@@ -3920,12 +3903,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="65.25" thickBot="1">
+    <row r="100" spans="1:6" ht="27" thickBot="1">
       <c r="A100" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>37</v>
@@ -3940,12 +3923,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="27" thickBot="1">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A101" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>25</v>
@@ -3960,12 +3943,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="39.75" thickBot="1">
+    <row r="102" spans="1:6" ht="27" thickBot="1">
       <c r="A102" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>15</v>
@@ -3980,12 +3963,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="39.75" thickBot="1">
+    <row r="103" spans="1:6" ht="27" thickBot="1">
       <c r="A103" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>15</v>
@@ -4000,12 +3983,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="39.75" thickBot="1">
+    <row r="104" spans="1:6" ht="27" thickBot="1">
       <c r="A104" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>8</v>
@@ -4020,12 +4003,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="39.75" thickBot="1">
+    <row r="105" spans="1:6" ht="27" thickBot="1">
       <c r="A105" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>25</v>
@@ -4040,9 +4023,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="65.25" thickBot="1">
+    <row r="106" spans="1:6" ht="27" thickBot="1">
       <c r="A106" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>12</v>
@@ -4060,12 +4043,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="52.5" thickBot="1">
-      <c r="A107" s="3" t="s">
-        <v>359</v>
+    <row r="107" spans="1:6" ht="27" thickBot="1">
+      <c r="A107" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>21</v>
@@ -4080,12 +4063,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="52.5" thickBot="1">
+    <row r="108" spans="1:6" ht="27" thickBot="1">
       <c r="A108" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>21</v>
@@ -4100,12 +4083,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="39.75" thickBot="1">
+    <row r="109" spans="1:6" ht="27" thickBot="1">
       <c r="A109" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>15</v>
@@ -4120,12 +4103,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="39.75" thickBot="1">
+    <row r="110" spans="1:6" ht="27" thickBot="1">
       <c r="A110" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>15</v>
@@ -4140,12 +4123,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="52.5" thickBot="1">
+    <row r="111" spans="1:6" ht="27" thickBot="1">
       <c r="A111" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>21</v>
@@ -4160,12 +4143,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="39.75" thickBot="1">
+    <row r="112" spans="1:6" ht="27" thickBot="1">
       <c r="A112" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>15</v>
@@ -4180,12 +4163,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="65.25" thickBot="1">
+    <row r="113" spans="1:6" ht="27" thickBot="1">
       <c r="A113" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>37</v>
@@ -4200,12 +4183,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="27" thickBot="1">
+    <row r="114" spans="1:6" ht="15.75" thickBot="1">
       <c r="A114" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>25</v>
@@ -4220,38 +4203,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1">
+    <row r="115" spans="1:6" ht="27" thickBot="1">
       <c r="A115" s="3" t="s">
-        <v>360</v>
+        <v>215</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="52.5" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="27" thickBot="1">
       <c r="A116" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>17</v>
@@ -4260,49 +4243,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="39.75" thickBot="1">
+    <row r="117" spans="1:6" ht="27" thickBot="1">
       <c r="A117" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="39.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="27" thickBot="1">
       <c r="A118" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="39.75" thickBot="1">
+    <row r="119" spans="1:6" ht="15.75" thickBot="1">
       <c r="A119" s="3" t="s">
-        <v>222</v>
+        <v>467</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>223</v>
@@ -4314,15 +4297,15 @@
         <v>26</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="78" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" thickBot="1">
       <c r="A120" s="3" t="s">
-        <v>361</v>
+        <v>476</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>224</v>
@@ -4334,84 +4317,84 @@
         <v>26</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="39.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="27" thickBot="1">
       <c r="A121" s="3" t="s">
-        <v>362</v>
+        <v>225</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="39.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="27" thickBot="1">
       <c r="A122" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="52.5" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="27" thickBot="1">
       <c r="A123" s="3" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="39.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="27" thickBot="1">
       <c r="A124" s="3" t="s">
-        <v>363</v>
+        <v>468</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>43</v>
@@ -4420,72 +4403,72 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="65.25" thickBot="1">
+    <row r="125" spans="1:6" ht="27" thickBot="1">
       <c r="A125" s="3" t="s">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="27" thickBot="1">
+      <c r="A126" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="27" thickBot="1">
+      <c r="A127" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A126" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="52.5" thickBot="1">
-      <c r="A127" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="39.75" thickBot="1">
+    <row r="128" spans="1:6" ht="15.75" thickBot="1">
       <c r="A128" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>33</v>
@@ -4494,58 +4477,58 @@
         <v>34</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="39.75" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="27" thickBot="1">
       <c r="A129" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="52.5" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="27" thickBot="1">
       <c r="A130" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="39.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="27" thickBot="1">
       <c r="A131" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>15</v>
@@ -4560,12 +4543,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="39.75" thickBot="1">
+    <row r="132" spans="1:6" ht="27" thickBot="1">
       <c r="A132" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>15</v>
@@ -4580,18 +4563,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="39.75" thickBot="1">
+    <row r="133" spans="1:6" ht="15.75" thickBot="1">
       <c r="A133" s="3" t="s">
-        <v>246</v>
+        <v>480</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>29</v>
@@ -4602,50 +4585,50 @@
     </row>
     <row r="134" spans="1:6" ht="27" thickBot="1">
       <c r="A134" s="3" t="s">
-        <v>365</v>
+        <v>479</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="78" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" thickBot="1">
       <c r="A135" s="3" t="s">
-        <v>366</v>
+        <v>249</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="39.75" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" thickBot="1">
       <c r="A136" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>33</v>
@@ -4660,38 +4643,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="39.75" thickBot="1">
+    <row r="137" spans="1:6" ht="27" thickBot="1">
       <c r="A137" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="39.75" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="27" thickBot="1">
       <c r="A138" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>17</v>
@@ -4700,112 +4683,112 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="39.75" thickBot="1">
+    <row r="139" spans="1:6" ht="15.75" thickBot="1">
       <c r="A139" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="27" thickBot="1">
+      <c r="A140" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="27" thickBot="1">
+      <c r="A141" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A140" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A141" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="39.75" thickBot="1">
+    <row r="142" spans="1:6" ht="15.75" thickBot="1">
       <c r="A142" s="3" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="27" thickBot="1">
       <c r="A143" s="3" t="s">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="39.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="27" thickBot="1">
       <c r="A144" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
@@ -4814,84 +4797,84 @@
         <v>34</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="39.75" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" thickBot="1">
       <c r="A145" s="3" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="27" thickBot="1">
+      <c r="A146" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="B146" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F146" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A146" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="65.25" thickBot="1">
+    <row r="147" spans="1:6" ht="27" thickBot="1">
       <c r="A147" s="3" t="s">
-        <v>268</v>
+        <v>466</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="65.25" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="27" thickBot="1">
       <c r="A148" s="3" t="s">
-        <v>369</v>
+        <v>472</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>43</v>
@@ -4900,12 +4883,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="39.75" thickBot="1">
+    <row r="149" spans="1:6" ht="27" thickBot="1">
       <c r="A149" s="3" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>15</v>
@@ -4914,224 +4897,224 @@
         <v>16</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="39.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="27" thickBot="1">
       <c r="A150" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="27" thickBot="1">
+      <c r="A151" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D151" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A151" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="39.75" thickBot="1">
+    <row r="152" spans="1:6" ht="15.75" thickBot="1">
       <c r="A152" s="3" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="27" thickBot="1">
       <c r="A153" s="3" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="52.5" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1">
       <c r="A154" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="27" thickBot="1">
+      <c r="A155" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A155" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C155" s="3" t="s">
+    <row r="156" spans="1:6" ht="27" thickBot="1">
+      <c r="A156" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A156" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>43</v>
+      <c r="E156" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="39.75" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" thickBot="1">
       <c r="A157" s="3" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" thickBot="1">
       <c r="A158" s="3" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="27" thickBot="1">
       <c r="A159" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="39.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" thickBot="1">
       <c r="A160" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>29</v>
@@ -5140,12 +5123,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="27" thickBot="1">
+    <row r="161" spans="1:6" ht="15.75" thickBot="1">
       <c r="A161" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>25</v>
@@ -5162,50 +5145,50 @@
     </row>
     <row r="162" spans="1:6" ht="27" thickBot="1">
       <c r="A162" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="65.25" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" thickBot="1">
       <c r="A163" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="39.75" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="27" thickBot="1">
       <c r="A164" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>33</v>
@@ -5214,35 +5197,35 @@
         <v>34</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="39.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" thickBot="1">
       <c r="A165" s="3" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.75" thickBot="1">
       <c r="A166" s="3" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>12</v>
@@ -5260,38 +5243,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="27" thickBot="1">
+    <row r="167" spans="1:6" ht="15.75" thickBot="1">
       <c r="A167" s="3" t="s">
-        <v>374</v>
+        <v>298</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="39.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="27" thickBot="1">
       <c r="A168" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>29</v>
@@ -5300,172 +5283,172 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="39.75" thickBot="1">
+    <row r="169" spans="1:6" ht="15.75" thickBot="1">
       <c r="A169" s="3" t="s">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="27" thickBot="1">
+      <c r="A171" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="52.5" thickBot="1">
-      <c r="A170" s="3" t="s">
+      <c r="B171" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="C171" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="27" thickBot="1">
+      <c r="A172" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A171" s="3" t="s">
+      <c r="B172" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C171" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F172" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A172" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="27" thickBot="1">
       <c r="A173" s="3" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="65.25" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" thickBot="1">
       <c r="A174" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="27" thickBot="1">
+      <c r="A175" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="C175" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="27" thickBot="1">
+      <c r="A176" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A175" s="3" t="s">
+      <c r="B176" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="C176" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="27" thickBot="1">
+      <c r="A177" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="65.25" thickBot="1">
-      <c r="A176" s="3" t="s">
+      <c r="B177" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="65.25" thickBot="1">
-      <c r="A177" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>37</v>
@@ -5473,79 +5456,79 @@
       <c r="D177" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="39.75" thickBot="1">
+    <row r="178" spans="1:6" ht="27" thickBot="1">
       <c r="A178" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="27" thickBot="1">
+      <c r="A179" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="C179" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A180" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="27" thickBot="1">
+      <c r="A181" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A179" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A180" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A181" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>15</v>
@@ -5560,92 +5543,92 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="65.25" thickBot="1">
+    <row r="182" spans="1:6" ht="27" thickBot="1">
       <c r="A182" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="27" thickBot="1">
+      <c r="A183" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="C183" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="27" thickBot="1">
+      <c r="A184" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="52.5" thickBot="1">
-      <c r="A183" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="C184" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A185" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="27" thickBot="1">
+      <c r="A186" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A184" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A185" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A186" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>15</v>
@@ -5654,55 +5637,55 @@
         <v>16</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="39.75" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="27" thickBot="1">
       <c r="A187" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A188" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C187" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E188" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F188" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A188" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="78" thickBot="1">
+    <row r="189" spans="1:6" ht="15.75" thickBot="1">
       <c r="A189" s="3" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
@@ -5720,108 +5703,108 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="65.25" thickBot="1">
+    <row r="190" spans="1:6" ht="27" thickBot="1">
       <c r="A190" s="3" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="65.25" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" thickBot="1">
       <c r="A191" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="65.25" thickBot="1">
+        <v>362</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" ht="27" thickBot="1">
       <c r="A192" s="3" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="52.5" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="27" thickBot="1">
       <c r="A193" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-    </row>
-    <row r="194" spans="1:6" ht="65.25" thickBot="1">
+        <v>364</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="27" thickBot="1">
       <c r="A194" s="3" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>12</v>
+        <v>412</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="39.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="27" thickBot="1">
       <c r="A195" s="3" t="s">
-        <v>385</v>
+        <v>489</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>43</v>
@@ -5830,18 +5813,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="39.75" thickBot="1">
+    <row r="196" spans="1:6" ht="27" thickBot="1">
       <c r="A196" s="3" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>29</v>
@@ -5850,12 +5833,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="39.75" thickBot="1">
+    <row r="197" spans="1:6" ht="27" thickBot="1">
       <c r="A197" s="3" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>33</v>
@@ -5870,32 +5853,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="52.5" thickBot="1">
+    <row r="198" spans="1:6" ht="27" thickBot="1">
       <c r="A198" s="3" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="39.75" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" thickBot="1">
       <c r="A199" s="3" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>33</v>
@@ -5903,199 +5886,199 @@
       <c r="D199" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>43</v>
+      <c r="E199" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="39.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" thickBot="1">
       <c r="A200" s="3" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="39.75" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" thickBot="1">
       <c r="A201" s="3" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E201" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E201" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="39.75" thickBot="1">
+    <row r="202" spans="1:6" ht="27" thickBot="1">
       <c r="A202" s="3" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="27" thickBot="1">
       <c r="A203" s="3" t="s">
-        <v>393</v>
+        <v>485</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="C203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="27" thickBot="1">
+      <c r="A204" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="27" thickBot="1">
+      <c r="A205" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D205" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E203" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="65.25" thickBot="1">
-      <c r="A204" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A205" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E205" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="39.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" thickBot="1">
       <c r="A206" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="39.75" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="27" thickBot="1">
       <c r="A207" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="39.75" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="27" thickBot="1">
       <c r="A208" s="3" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="39.75" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" thickBot="1">
       <c r="A209" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>33</v>
@@ -6103,99 +6086,99 @@
       <c r="D209" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="27" thickBot="1">
+      <c r="A210" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="27" thickBot="1">
+      <c r="A211" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="27" thickBot="1">
+      <c r="A212" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="27" thickBot="1">
+      <c r="A213" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E213" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="F213" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="78" thickBot="1">
-      <c r="A210" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A211" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A212" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A213" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="65.25" thickBot="1">
+    <row r="214" spans="1:6" ht="27" thickBot="1">
       <c r="A214" s="3" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>461</v>
+        <v>334</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>37</v>
@@ -6204,118 +6187,118 @@
         <v>38</v>
       </c>
       <c r="E214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="27" thickBot="1">
+      <c r="A215" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E215" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F214" s="3" t="s">
+      <c r="F215" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A215" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C215" s="3" t="s">
+    <row r="216" spans="1:6" ht="27" thickBot="1">
+      <c r="A216" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E216" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F216" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="65.25" thickBot="1">
-      <c r="A216" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C216" s="3" t="s">
+    <row r="217" spans="1:6" ht="27" thickBot="1">
+      <c r="A217" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D217" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E217" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F216" s="3" t="s">
+      <c r="F217" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A217" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C217" s="5" t="s">
+    <row r="218" spans="1:6" ht="27" thickBot="1">
+      <c r="A218" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D217" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A218" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C218" s="3" t="s">
+      <c r="D218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="27" thickBot="1">
+      <c r="A219" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D219" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E219" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="F219" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A219" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="39.75" thickBot="1">
+    <row r="220" spans="1:6" ht="27" thickBot="1">
       <c r="A220" s="3" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>15</v>
@@ -6330,112 +6313,112 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="52.5" thickBot="1">
+    <row r="221" spans="1:6" ht="27" thickBot="1">
       <c r="A221" s="3" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="C221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="27" thickBot="1">
+      <c r="A222" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D222" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E221" s="3" t="s">
+      <c r="E222" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F221" s="3" t="s">
+      <c r="F222" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A222" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="5" t="s">
+    <row r="223" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A223" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D222" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A223" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C223" s="3" t="s">
+      <c r="D223" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="27" thickBot="1">
+      <c r="A224" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D224" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E223" s="4" t="s">
+      <c r="E224" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="F224" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="52.5" thickBot="1">
-      <c r="A224" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C224" s="3" t="s">
+    <row r="225" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A225" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D225" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E225" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="F225" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A225" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="39.75" thickBot="1">
+    <row r="226" spans="1:6" ht="27" thickBot="1">
       <c r="A226" s="3" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>25</v>
@@ -6444,124 +6427,124 @@
         <v>26</v>
       </c>
       <c r="E226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="27" thickBot="1">
+      <c r="A227" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E227" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="F227" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A227" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15.75" thickBot="1">
       <c r="A228" s="3" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="39.75" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" thickBot="1">
       <c r="A229" s="3" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>473</v>
+        <v>12</v>
       </c>
       <c r="C229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="27" thickBot="1">
+      <c r="A230" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D230" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E230" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="F230" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="65.25" thickBot="1">
-      <c r="A230" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C230" s="3" t="s">
+    <row r="231" spans="1:6" ht="27" thickBot="1">
+      <c r="A231" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D231" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E230" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="52.5" thickBot="1">
-      <c r="A231" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C231" s="3" t="s">
+      <c r="E231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="27" thickBot="1">
+      <c r="A232" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D232" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A232" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>17</v>
@@ -6570,12 +6553,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="39.75" thickBot="1">
+    <row r="233" spans="1:6" ht="27" thickBot="1">
       <c r="A233" s="3" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>15</v>
@@ -6590,218 +6573,218 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="65.25" thickBot="1">
+    <row r="234" spans="1:6" ht="27" thickBot="1">
       <c r="A234" s="3" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="C234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="27" thickBot="1">
+      <c r="A235" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E234" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A235" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C235" s="3" t="s">
+      <c r="E235" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="27" thickBot="1">
+      <c r="A236" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D236" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E236" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="F236" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A236" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C236" s="3" t="s">
+    <row r="237" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A237" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D237" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E237" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="F237" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A237" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C237" s="3" t="s">
+    <row r="238" spans="1:6" ht="27" thickBot="1">
+      <c r="A238" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="E238" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="F238" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="52.5" thickBot="1">
-      <c r="A238" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C238" s="3" t="s">
+    <row r="239" spans="1:6" ht="27" thickBot="1">
+      <c r="A239" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D239" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E238" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A239" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C239" s="3" t="s">
+      <c r="E239" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="27" thickBot="1">
+      <c r="A240" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D240" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E239" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="90.75" thickBot="1">
-      <c r="A240" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C240" s="3" t="s">
+      <c r="E240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A241" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="65.25" thickBot="1">
-      <c r="A241" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E241" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="65.25" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="27" thickBot="1">
       <c r="A242" s="3" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>485</v>
+        <v>12</v>
       </c>
       <c r="C242" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="27" thickBot="1">
+      <c r="A243" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D243" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E242" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A243" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C243" s="3" t="s">
+      <c r="E243" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="27" thickBot="1">
+      <c r="A244" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A244" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>43</v>
@@ -6810,129 +6793,129 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="65.25" thickBot="1">
+    <row r="245" spans="1:6" ht="27" thickBot="1">
       <c r="A245" s="3" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="C245" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="27" thickBot="1">
+      <c r="A246" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E245" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A246" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C246" s="3" t="s">
+      <c r="E246" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="27" thickBot="1">
+      <c r="A247" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="E247" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="F247" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A247" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="52.5" thickBot="1">
+    <row r="248" spans="1:6" ht="27" thickBot="1">
       <c r="A248" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="C248" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A249" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="27" thickBot="1">
+      <c r="A250" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E250" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="F250" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="65.25" thickBot="1">
-      <c r="A249" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E249" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A250" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="27" thickBot="1">
+    <row r="251" spans="1:6" ht="15.75" thickBot="1">
       <c r="A251" s="3" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>12</v>
@@ -6950,12 +6933,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="52.5" thickBot="1">
+    <row r="252" spans="1:6" ht="27" thickBot="1">
       <c r="A252" s="3" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>21</v>
@@ -6970,12 +6953,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="39.75" thickBot="1">
+    <row r="253" spans="1:6" ht="27" thickBot="1">
       <c r="A253" s="3" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>33</v>
@@ -6990,12 +6973,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A254" s="6" t="s">
-        <v>441</v>
+    <row r="254" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A254" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>33</v>
@@ -7011,6 +6994,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F1000">
+    <sortCondition ref="A2:A1000"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>